--- a/biology/Zoologie/Charinus_quinteroi/Charinus_quinteroi.xlsx
+++ b/biology/Zoologie/Charinus_quinteroi/Charinus_quinteroi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus quinteroi est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Suriname et au Guyana[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Suriname et au Guyana.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de Charinus quinteroi mesure en moyenne 2,08 mm de long sur 2,72 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de Charinus quinteroi mesure en moyenne 2,08 mm de long sur 2,72 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tricharinus guianensis par Quintero en 1986. Elle est placée dans le genre Charinus par Weygoldt en 2000[3]. Le nom Charinus guianensis (Quintero, 1986) étant préoccupé par Charinus guianensis (Caporiacco, 1947), elle est renommée Charinus quinteroi par Weygoldt en 2002[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tricharinus guianensis par Quintero en 1986. Elle est placée dans le genre Charinus par Weygoldt en 2000. Le nom Charinus guianensis (Quintero, 1986) étant préoccupé par Charinus guianensis (Caporiacco, 1947), elle est renommée Charinus quinteroi par Weygoldt en 2002.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Diomedes Quintero Arias[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Diomedes Quintero Arias.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Weygoldt, 2002 : « Amblypygi. » Amazonian Arachnida and Myriapoda: identification keys to all classes, orders, families, some genera, and lists of known terrestrial species, Pensoft Series Faunistica, Pensoft, Sofia-Moscow, no 24, p. 293-302.
 Quintero, 1986 : « Revision de la clasificacion de amblypygidos pulvinados: creacion de subordenes, una nueva familia y un nuevo genero con tres nuevas especies (Arachnida: Amblypygi). » Proceedings of the Ninth International Congress of Arachnology, Panama 1983, Smithsonian Institution Press, p. 1-333.</t>
